--- a/umit_files_xlsx/umit_inf.xlsx
+++ b/umit_files_xlsx/umit_inf.xlsx
@@ -4943,8 +4943,14 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="G89" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Очередь")</f>
+        <v>Очередь</v>
+      </c>
+      <c r="H89" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),388.0)</f>
+        <v>388</v>
+      </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
